--- a/Расчет плиты.xlsx
+++ b/Расчет плиты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Ангар\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8804657-46E9-4322-B6B5-5DA350524EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B561A878-77D9-4C80-AE53-F61E39FB6F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7DB87960-ABDD-4C13-B092-1AA1708C64D4}"/>
   </bookViews>
